--- a/WebserviceElectionMachine-Scrum - Hossein.xlsx
+++ b/WebserviceElectionMachine-Scrum - Hossein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\WebserviceElectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEFAFFE-6A74-4631-989B-52C5C5A00DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDCF84-6243-4E27-838E-08416CFC3F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
   <si>
     <t>Workflow for scrum practices</t>
   </si>
@@ -238,16 +238,22 @@
     <t>8.	as an owner I need Create login page for admins which could be able to edit candidate and questions</t>
   </si>
   <si>
-    <t>9     As a customer, I should be able to print the final suggestions and detail information of suggested candidates.</t>
-  </si>
-  <si>
     <t xml:space="preserve">11	As a customer, I would like to see my answers after I finish answering everything </t>
   </si>
   <si>
-    <t>10. 	As an owner I should be able to create questionary, which candidates and customers can use it answer the questions.</t>
+    <t>Sprint Backlog : Sprint 1-from 29.04.2021</t>
   </si>
   <si>
-    <t>Sprint Backlog : Sprint 1-from 29.04.2021</t>
+    <t>9.	As an owner I should be able to create questionary, which candidates and customers can use it answer the questions.</t>
+  </si>
+  <si>
+    <t>10.    As a customer, I should be able to print the final suggestions and detail information of suggested candidates.</t>
+  </si>
+  <si>
+    <t>create a functions for next and back buttons</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -611,6 +617,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,9 +627,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -631,7 +637,67 @@
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 2 2" xfId="6" xr:uid="{A75B60AD-6CE9-48D0-9820-00C76EF07ABF}"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2481,12 +2547,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="A2:C58" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86" totalsRowBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="A2:C58" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="A2:C58" xr:uid="{32FA3138-EC93-4A01-9A93-BB704ABA4916}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{B3A7506F-50F5-4108-9370-432D2EF8957E}" name="User  Stroy" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{DD5D64B4-EAC0-4F1A-8D23-2A18A12CEBF9}" name="Story Point(s)" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{BDD4E56C-E582-4FED-A82B-A04A0F2B83BB}" name="Priority" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{B3A7506F-50F5-4108-9370-432D2EF8957E}" name="User  Stroy" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{DD5D64B4-EAC0-4F1A-8D23-2A18A12CEBF9}" name="Story Point(s)" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{BDD4E56C-E582-4FED-A82B-A04A0F2B83BB}" name="Priority" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2852,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95158496-5B07-4778-871C-839C6BA690D9}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2868,12 +2934,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2934,7 +3000,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="18"/>
@@ -2943,7 +3009,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="18"/>
@@ -2952,7 +3018,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="18"/>
@@ -2961,17 +3027,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>70</v>
+      <c r="A11" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
@@ -2980,7 +3046,7 @@
     </row>
     <row r="13" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
@@ -3239,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC472C-4832-45AF-A950-04969A0E3C90}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3349,9 @@
         <v>21</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -3301,7 +3369,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -3318,7 +3386,9 @@
         <v>21</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -3356,7 +3426,9 @@
         <v>21</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -3371,62 +3443,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="81" priority="14" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="87" priority="14" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4">
-    <cfRule type="containsText" dxfId="79" priority="10" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="85" priority="10" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4">
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="84" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="83" priority="8" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="containsText" dxfId="75" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="81" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="73" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="79" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="containsText" dxfId="71" priority="2" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="77" priority="2" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3437,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D34160-CB17-4D85-99A0-67CFC77F80D8}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3452,27 +3524,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3674,9 +3746,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
       <c r="I8" s="9">
         <v>1</v>
       </c>
@@ -3691,16 +3767,20 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -3712,20 +3792,30 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -3739,7 +3829,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -3749,15 +3839,15 @@
         <v>41</v>
       </c>
       <c r="E11" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -3772,7 +3862,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
@@ -3781,16 +3871,14 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
       <c r="I12" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -3805,24 +3893,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
+      <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -3834,24 +3920,20 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -3863,20 +3945,26 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -3890,7 +3978,7 @@
     </row>
     <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
@@ -3902,11 +3990,13 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1.5</v>
+      </c>
       <c r="I16" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -3919,9 +4009,9 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -3930,12 +4020,16 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
+      <c r="E17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="9">
         <v>0.5</v>
       </c>
@@ -3951,27 +4045,15 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -3983,16 +4065,20 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+    <row r="19" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -4004,20 +4090,30 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -4029,9 +4125,9 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -4040,19 +4136,13 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9">
         <v>0.5</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -4064,9 +4154,9 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -4076,9 +4166,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -4095,18 +4183,22 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
@@ -4121,25 +4213,19 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4152,19 +4238,29 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -4178,7 +4274,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -4187,19 +4283,17 @@
       <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="9">
         <v>1</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
       <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="9">
-        <v>1</v>
-      </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4213,7 +4307,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -4223,15 +4317,9 @@
         <v>53</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1</v>
-      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -4245,21 +4333,32 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f>SUM(E3:E27)</f>
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <f>SUM(F3:F27)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(G3:G27)</f>
+        <v>7</v>
+      </c>
+      <c r="H28" s="5">
+        <f>SUM(H3:H27)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I28" s="5">
+        <f>SUM(I3:I27)</f>
+        <v>8</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -4271,156 +4370,68 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <f>SUM(E3:E30)</f>
-        <v>5</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" ref="E31:G31" si="0">SUM(F3:F30)</f>
-        <v>6</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H31" s="5">
-        <f>SUM(H3:H30)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I31" s="5">
-        <f>SUM(I3:I30)</f>
-        <v>8</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D9">
-    <cfRule type="containsText" dxfId="69" priority="31" operator="containsText" text="FINISHED">
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="containsText" dxfId="75" priority="31" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="32" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="74" priority="32" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
-    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="28" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D16)))</formula>
+  <conditionalFormatting sqref="D15:D18">
+    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="28" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D24">
-    <cfRule type="containsText" dxfId="65" priority="25" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="26" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D21)))</formula>
+  <conditionalFormatting sqref="D20:D23">
+    <cfRule type="containsText" dxfId="71" priority="25" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="26" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="22" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D29)))</formula>
+  <conditionalFormatting sqref="D10:D13">
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D14">
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D11)))</formula>
+  <conditionalFormatting sqref="D25:D26">
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D24 D6:D9 D16:D19 D11:D14 D26:D29 D3:D4" xr:uid="{90EF28FC-53E8-4D70-83DE-DF7A5030B77C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D23 D6:D8 D15:D18 D10:D13 D25:D27 D3:D4" xr:uid="{90EF28FC-53E8-4D70-83DE-DF7A5030B77C}">
       <formula1>"WAITING, ONGOING, FINISHED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4431,10 +4442,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B38D649-D38F-47A4-987B-96FC301CF3A3}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D11" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4446,27 +4457,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4682,7 +4693,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -4715,7 +4726,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E10" s="9">
         <v>0.5</v>
@@ -4748,7 +4759,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -5436,14 +5447,16 @@
         <v>18</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9">
         <v>0.5</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -5465,15 +5478,19 @@
         <v>18</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9">
         <v>0.5</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -5492,7 +5509,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -5510,33 +5527,20 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <f>SUM(E3:E24)</f>
-        <v>4</v>
-      </c>
-      <c r="F38" s="5">
-        <f>SUM(F3:F24)</f>
-        <v>4</v>
-      </c>
-      <c r="G38" s="5">
-        <f>SUM(G3:G24)</f>
-        <v>5</v>
-      </c>
-      <c r="H38" s="5">
-        <f>SUM(H3:H24)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I38" s="5">
-        <f>SUM(I3:I24)</f>
-        <v>7</v>
-      </c>
+    <row r="38" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -5548,124 +5552,334 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
+        <f t="shared" ref="E43:H43" si="0">SUM(E3:E37)</f>
+        <v>6</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="I43" s="5">
+        <f>SUM(I3:I37)</f>
+        <v>10</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="61" priority="47" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="34" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="60" priority="48" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D17">
-    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="59" priority="45" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D23">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="57" priority="43" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="56" priority="44" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D37">
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D37">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="38" priority="22" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D26">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D37">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D42">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D42">
     <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D42">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D14:D17 D9:D12 D19:D23 D25:D37" xr:uid="{44A84AD0-9D67-4BA0-A248-DD0B1AF39B2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D14:D17 D25:D42 D19:D23 D9:D12" xr:uid="{44A84AD0-9D67-4BA0-A248-DD0B1AF39B2E}">
       <formula1>"WAITING, ONGOING, FINISHED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5691,27 +5905,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -6407,27 +6621,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -7113,15 +7327,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100D88E0649D34A4A40BE87987BBC567833" ma:contentTypeVersion="2" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f3266c6cc1410ba2008d4b4d9d49ad4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31c16ac0-b1a7-4d12-9c22-a12e68df316a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="048e47df2e95e79dd6630b0f2d635ba7" ns2:_="">
     <xsd:import namespace="31c16ac0-b1a7-4d12-9c22-a12e68df316a"/>
@@ -7253,6 +7458,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56DAD679-0DA5-4523-A045-DB59C4C76152}">
   <ds:schemaRefs>
@@ -7263,14 +7477,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A43DF592-EB4B-40B2-AE6E-A8B75D5736AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FE2458-C7DF-4F7B-90A8-3EB3E87ACD0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7286,4 +7492,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A43DF592-EB4B-40B2-AE6E-A8B75D5736AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WebserviceElectionMachine-Scrum - Hossein.xlsx
+++ b/WebserviceElectionMachine-Scrum - Hossein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\WebserviceElectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDCF84-6243-4E27-838E-08416CFC3F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD9651-BE69-4FAB-8324-06FA663C9DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="sprint_planning_meetings" sheetId="6" r:id="rId3"/>
     <sheet name="sprint1" sheetId="18" r:id="rId4"/>
     <sheet name="sprint2" sheetId="20" r:id="rId5"/>
-    <sheet name="sprint3" sheetId="16" r:id="rId6"/>
-    <sheet name="sprint4" sheetId="17" r:id="rId7"/>
+    <sheet name="sprint3" sheetId="21" r:id="rId6"/>
+    <sheet name="sprint4" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="103">
   <si>
     <t>Workflow for scrum practices</t>
   </si>
@@ -64,9 +64,6 @@
     <t>6.	As an owner I want to Candidate information and also candidates’ answers.</t>
   </si>
   <si>
-    <t>3/4</t>
-  </si>
-  <si>
     <t>2/4</t>
   </si>
   <si>
@@ -100,18 +97,9 @@
     <t>07.05.2021</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Hamza</t>
   </si>
   <si>
-    <t>A compensatory meeting was held at 26.02.2021</t>
-  </si>
-  <si>
-    <t>10.05.2021</t>
-  </si>
-  <si>
     <t>BACKLOG TASK &amp; ID</t>
   </si>
   <si>
@@ -199,27 +187,15 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Sprint Backlog : Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint Backlog : Sprint 4</t>
-  </si>
-  <si>
     <t>•	create page to see all candidates</t>
   </si>
   <si>
     <t>6. as a customer I should see all candidates with full information.</t>
   </si>
   <si>
-    <t>•	create GUI for candidate with CSS</t>
-  </si>
-  <si>
     <t>create  connection with database use JPA</t>
   </si>
   <si>
-    <t>Sprint Backlog : Sprint 2 - from 06.05.2021</t>
-  </si>
-  <si>
     <t>use database to check info</t>
   </si>
   <si>
@@ -238,29 +214,134 @@
     <t>8.	as an owner I need Create login page for admins which could be able to edit candidate and questions</t>
   </si>
   <si>
-    <t xml:space="preserve">11	As a customer, I would like to see my answers after I finish answering everything </t>
-  </si>
-  <si>
-    <t>Sprint Backlog : Sprint 1-from 29.04.2021</t>
-  </si>
-  <si>
-    <t>9.	As an owner I should be able to create questionary, which candidates and customers can use it answer the questions.</t>
-  </si>
-  <si>
-    <t>10.    As a customer, I should be able to print the final suggestions and detail information of suggested candidates.</t>
-  </si>
-  <si>
     <t>create a functions for next and back buttons</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>1. As an owner I want a platform that access the customers answers and compare them with candidate answers and recommend the 3 best matches.</t>
+  </si>
+  <si>
+    <t>10.    As a customer, I should be check my answers after finish my questionari</t>
+  </si>
+  <si>
+    <t>8.	as an owner I need Create login page for admins which could be able to edit questions</t>
+  </si>
+  <si>
+    <t>11. as an owner I need Create login page for admins which could be able to edit Candidates</t>
+  </si>
+  <si>
+    <t>12 - as an owner I should be able to add new candidates with their answers</t>
+  </si>
+  <si>
+    <t>13 - as a customer I need to see statistics of candidates results</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>22.05.2021</t>
+  </si>
+  <si>
+    <t>9.	As an owner I should be able to create questionary, which customers can use it answer the questions.</t>
+  </si>
+  <si>
+    <t>•	create a jsp page for user interface which shows question and answers</t>
+  </si>
+  <si>
+    <t>•	need a connection to database with JPA</t>
+  </si>
+  <si>
+    <t>•	create  class for customer and candidate answers</t>
+  </si>
+  <si>
+    <t>create a chart wich reads from database</t>
+  </si>
+  <si>
+    <t>* need connection with database with JPA</t>
+  </si>
+  <si>
+    <t>* create tables in my sql is needed</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>Week 5 - sprint4</t>
+  </si>
+  <si>
+    <t>Week 4 -  sprint3</t>
+  </si>
+  <si>
+    <t>Week 2-  sprint1</t>
+  </si>
+  <si>
+    <t>Week 3 -  sprint2</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 2 - to 15.05.2021</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 3 - to 22.05.2021</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 4 - to 02.06.2021</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 1- to 30.04.2021</t>
+  </si>
+  <si>
+    <t>•	create a html page for user interface which shows result of candidate answers</t>
+  </si>
+  <si>
+    <t>•	need a connection to database to bring the suggested candidates’ data to page with JPA</t>
+  </si>
+  <si>
+    <t>•	create page to see all candidates with JSP</t>
+  </si>
+  <si>
+    <t>Use google developer to create charts</t>
+  </si>
+  <si>
+    <t>•	create page to see all candidates use JSP</t>
+  </si>
+  <si>
+    <t>as a customer I need a navigation bar to access better throught pages</t>
+  </si>
+  <si>
+    <t>Use bootstrap to create a navigation bar</t>
+  </si>
+  <si>
+    <t>•	need a connection with links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	try to be dynamic with use of jsp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* need connection with JPA </t>
+  </si>
+  <si>
+    <t>* create related classes</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,8 +445,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +510,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +650,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -627,6 +732,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -637,7 +767,7 @@
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 2 2" xfId="6" xr:uid="{A75B60AD-6CE9-48D0-9820-00C76EF07ABF}"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="118">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1385,6 +1515,226 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2232,15 +2582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>549087</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>246530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2255,8 +2605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="762000"/>
-          <a:ext cx="6953250" cy="5362575"/>
+          <a:off x="12091146" y="755276"/>
+          <a:ext cx="6452907" cy="2696136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2547,12 +2897,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="A2:C58" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
-  <autoFilter ref="A2:C58" xr:uid="{32FA3138-EC93-4A01-9A93-BB704ABA4916}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="A2:C59" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
+  <autoFilter ref="A2:C59" xr:uid="{32FA3138-EC93-4A01-9A93-BB704ABA4916}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{B3A7506F-50F5-4108-9370-432D2EF8957E}" name="User  Stroy" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{DD5D64B4-EAC0-4F1A-8D23-2A18A12CEBF9}" name="Story Point(s)" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{BDD4E56C-E582-4FED-A82B-A04A0F2B83BB}" name="Priority" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{B3A7506F-50F5-4108-9370-432D2EF8957E}" name="User  Stroy" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{DD5D64B4-EAC0-4F1A-8D23-2A18A12CEBF9}" name="Story Point(s)" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{BDD4E56C-E582-4FED-A82B-A04A0F2B83BB}" name="Priority" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2916,24 +3266,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95158496-5B07-4778-871C-839C6BA690D9}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="14"/>
+    <col min="2" max="2" width="11.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="14" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14"/>
+    <col min="6" max="6" width="17.5" style="14" customWidth="1"/>
     <col min="7" max="7" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +3292,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2952,9 +3303,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>6</v>
@@ -2963,7 +3314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +3323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
@@ -2981,7 +3332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
@@ -2990,43 +3341,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="41"/>
+      <c r="G10" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>72</v>
       </c>
@@ -3034,53 +3389,71 @@
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="40"/>
+      <c r="G11" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="39"/>
+      <c r="G12" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
     </row>
@@ -3189,10 +3562,10 @@
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
+    <row r="40" spans="1:3" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
@@ -3280,18 +3653,24 @@
       <c r="C57" s="26"/>
     </row>
     <row r="58" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="26"/>
     </row>
     <row r="59" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="26"/>
+    </row>
+    <row r="60" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3303,15 +3682,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC472C-4832-45AF-A950-04969A0E3C90}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
@@ -3319,187 +3698,304 @@
     <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="87" priority="14" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="109" priority="22" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="108" priority="21" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4">
-    <cfRule type="containsText" dxfId="85" priority="10" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="107" priority="18" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4">
-    <cfRule type="containsText" dxfId="84" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="106" priority="17" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="83" priority="8" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="105" priority="16" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="104" priority="15" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="containsText" dxfId="81" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="103" priority="14" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="79" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="101" priority="12" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="100" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="containsText" dxfId="77" priority="2" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="99" priority="10" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="97" priority="8" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13">
+    <cfRule type="containsText" dxfId="95" priority="6" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13">
+    <cfRule type="containsText" dxfId="94" priority="5" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="containsText" dxfId="93" priority="4" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:E16">
+    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:E16">
+    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3509,15 +4005,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D34160-CB17-4D85-99A0-67CFC77F80D8}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.125" customWidth="1"/>
+    <col min="1" max="1" width="80.125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -3525,7 +4021,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3548,31 +4044,31 @@
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -3587,16 +4083,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -3616,16 +4112,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -3649,7 +4145,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3670,14 +4166,14 @@
     </row>
     <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9">
         <v>0.5</v>
@@ -3705,14 +4201,14 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9">
         <v>0.5</v>
@@ -3736,14 +4232,14 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
@@ -3773,7 +4269,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3794,14 +4290,14 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
@@ -3829,14 +4325,14 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9">
         <v>0.5</v>
@@ -3862,14 +4358,14 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3893,14 +4389,14 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -3926,7 +4422,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3947,14 +4443,14 @@
     </row>
     <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3978,14 +4474,14 @@
     </row>
     <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -4011,14 +4507,14 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9">
         <v>0.5</v>
@@ -4045,10 +4541,16 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -4065,20 +4567,22 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -4090,30 +4594,20 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9">
-        <v>0.5</v>
-      </c>
+    <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -4125,24 +4619,30 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
       <c r="F21" s="9">
         <v>0.5</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -4154,19 +4654,21 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -4183,22 +4685,18 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
@@ -4213,19 +4711,25 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4238,29 +4742,19 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -4274,26 +4768,28 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
       <c r="F26" s="9">
         <v>1</v>
       </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4307,19 +4803,25 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -4333,32 +4835,21 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <f>SUM(E3:E27)</f>
-        <v>5</v>
-      </c>
-      <c r="F28" s="5">
-        <f>SUM(F3:F27)</f>
-        <v>6.5</v>
-      </c>
-      <c r="G28" s="5">
-        <f>SUM(G3:G27)</f>
-        <v>7</v>
-      </c>
-      <c r="H28" s="5">
-        <f>SUM(H3:H27)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I28" s="5">
-        <f>SUM(I3:I27)</f>
-        <v>8</v>
-      </c>
+      <c r="A28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -4370,68 +4861,106 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <f>SUM(E3:E28)</f>
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <f>SUM(F3:F28)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G29" s="5">
+        <f>SUM(G3:G28)</f>
+        <v>7</v>
+      </c>
+      <c r="H29" s="5">
+        <f>SUM(H3:H28)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I29" s="5">
+        <f>SUM(I3:I28)</f>
+        <v>8</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D8">
-    <cfRule type="containsText" dxfId="75" priority="31" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="89" priority="31" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="32" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="88" priority="32" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
-    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="FINISHED">
+  <conditionalFormatting sqref="D15:D19">
+    <cfRule type="containsText" dxfId="87" priority="27" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="28" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="86" priority="28" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D23">
-    <cfRule type="containsText" dxfId="71" priority="25" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="26" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D20)))</formula>
+  <conditionalFormatting sqref="D21:D24">
+    <cfRule type="containsText" dxfId="85" priority="25" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="26" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D13">
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="82" priority="18" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D25)))</formula>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D27)))</formula>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D23 D6:D8 D15:D18 D10:D13 D25:D27 D3:D4" xr:uid="{90EF28FC-53E8-4D70-83DE-DF7A5030B77C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D24 D6:D8 D3:D4 D10:D13 D26:D28 D15:D19" xr:uid="{90EF28FC-53E8-4D70-83DE-DF7A5030B77C}">
       <formula1>"WAITING, ONGOING, FINISHED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4442,15 +4971,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B38D649-D38F-47A4-987B-96FC301CF3A3}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D11" sqref="D9:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.125" customWidth="1"/>
+    <col min="1" max="1" width="80.375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -4458,7 +4987,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4481,31 +5010,31 @@
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -4524,7 +5053,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4545,14 +5074,14 @@
     </row>
     <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="9">
         <v>0.5</v>
@@ -4580,14 +5109,14 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="9">
         <v>0.5</v>
@@ -4611,14 +5140,14 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -4665,7 +5194,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4686,14 +5215,14 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -4719,14 +5248,14 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9">
         <v>0.5</v>
@@ -4752,14 +5281,14 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4783,14 +5312,14 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -4816,7 +5345,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4837,14 +5366,14 @@
     </row>
     <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -4868,20 +5397,22 @@
     </row>
     <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H15" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="9">
         <v>0.5</v>
@@ -4899,26 +5430,22 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E16" s="9">
         <v>0.5</v>
       </c>
-      <c r="F16" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -4931,14 +5458,24 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -4951,20 +5488,24 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -4976,30 +5517,20 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
-        <v>0.5</v>
-      </c>
+    <row r="19" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -5011,24 +5542,30 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
       <c r="F20" s="9">
         <v>0.5</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -5042,17 +5579,19 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -5069,22 +5608,18 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
@@ -5100,14 +5635,22 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
@@ -5122,17 +5665,17 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5144,32 +5687,20 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5183,22 +5714,22 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
@@ -5214,24 +5745,26 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5245,11 +5778,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -5266,13 +5801,13 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -5293,30 +5828,24 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="9">
         <v>0.5</v>
       </c>
-      <c r="G30" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="G30" s="9"/>
       <c r="H30" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" s="9"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -5330,24 +5859,26 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H31" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -5361,22 +5892,18 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="10"/>
@@ -5392,11 +5919,13 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -5413,20 +5942,33 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
+        <f t="shared" ref="E34:H34" si="0">SUM(E3:E28)</f>
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I34" s="5">
+        <f>SUM(I3:I28)</f>
+        <v>7.5</v>
+      </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -5438,448 +5980,132 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9">
-        <v>1</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="9">
-        <v>1</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9">
-        <v>1</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
-        <f t="shared" ref="E43:H43" si="0">SUM(E3:E37)</f>
-        <v>6</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="I43" s="5">
-        <f>SUM(I3:I37)</f>
-        <v>10</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D7">
-    <cfRule type="containsText" dxfId="61" priority="47" operator="containsText" text="FINISHED">
+  <conditionalFormatting sqref="D4:D7 D25:D28">
+    <cfRule type="containsText" dxfId="75" priority="49" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="48" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="74" priority="50" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
-    <cfRule type="containsText" dxfId="59" priority="45" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D14)))</formula>
+  <conditionalFormatting sqref="D20:D24">
+    <cfRule type="containsText" dxfId="71" priority="45" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="46" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="containsText" dxfId="57" priority="43" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="44" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D37">
-    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D33)))</formula>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="44" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="67" priority="37" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="66" priority="38" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D31">
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D37">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="22" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="FINISHED">
+    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="64" priority="34" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D25)))</formula>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="32" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D37">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D36)))</formula>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="61" priority="25" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D42">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D38)))</formula>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D40)))</formula>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D39)))</formula>
+  <conditionalFormatting sqref="D31:D32">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D42)))</formula>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D42">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D38)))</formula>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="8" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D40)))</formula>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D14:D17 D25:D42 D19:D23 D9:D12" xr:uid="{44A84AD0-9D67-4BA0-A248-DD0B1AF39B2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D20:D33 D9:D12 D14:D18" xr:uid="{44A84AD0-9D67-4BA0-A248-DD0B1AF39B2E}">
       <formula1>"WAITING, ONGOING, FINISHED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5889,16 +6115,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA68A67-EE5D-4BB7-8614-716BE6FFF16B}">
-  <dimension ref="A1:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A256A2-9BF9-42F0-A9F6-5DE4F68B2CAB}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="A9" sqref="A9:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="77.375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -5906,7 +6132,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -5929,31 +6155,31 @@
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -5966,16 +6192,20 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -5987,16 +6217,30 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -6009,12 +6253,20 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -6030,14 +6282,22 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -6051,10 +6311,16 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -6072,15 +6338,23 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -6092,16 +6366,20 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -6113,16 +6391,26 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -6134,16 +6422,28 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -6156,10 +6456,16 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6177,15 +6483,21 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -6198,14 +6510,26 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6218,16 +6542,20 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+    <row r="15" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -6240,15 +6568,29 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -6260,11 +6602,17 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6282,15 +6630,25 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -6303,13 +6661,23 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
@@ -6324,15 +6692,25 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -6345,15 +6723,19 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -6366,15 +6748,27 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -6387,15 +6781,23 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -6408,15 +6810,23 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -6429,13 +6839,23 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
@@ -6450,10 +6870,16 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6471,15 +6897,19 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -6492,15 +6922,27 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -6513,32 +6955,23 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <f>SUM(E4:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <f>SUM(F4:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f>SUM(G3:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <f>SUM(H3:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <f>SUM(I3:I28)</f>
-        <v>0</v>
-      </c>
+      <c r="A29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -6550,52 +6983,182 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
+        <f>SUM(E3:E26)</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="5">
+        <f>SUM(F3:F26)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G32" s="5">
+        <f>SUM(G3:G26)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H32" s="5">
+        <f>SUM(H3:H26)</f>
+        <v>7</v>
+      </c>
+      <c r="I32" s="5">
+        <f>SUM(I3:I26)</f>
+        <v>5.5</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D7">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="FINISHED">
+  <conditionalFormatting sqref="D4:D5 D7">
+    <cfRule type="containsText" dxfId="43" priority="55" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="42" priority="56" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D9)))</formula>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="containsText" dxfId="41" priority="51" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="52" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D14)))</formula>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="37" priority="49" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="50" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D22">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D19)))</formula>
+  <conditionalFormatting sqref="D22:D26">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D27">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D24)))</formula>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D31">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D14">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D22 D9:D12 D4:D7 D14:D17 D24:D27" xr:uid="{D98BD3AA-651D-46C2-8EEB-FA042BACFAF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D31 D16:D20 D22:D26 D4:D8 D10:D14" xr:uid="{CD6B38FC-C2EF-4232-97DE-C64642E5373B}">
       <formula1>"WAITING, ONGOING, FINISHED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6605,16 +7168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B7D602-C892-48C2-A0FF-18F0C4F257B1}">
-  <dimension ref="A1:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112566C-123D-4575-8217-06A49DFB210B}">
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="80.25" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -6622,7 +7185,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -6645,31 +7208,31 @@
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -6682,16 +7245,20 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -6703,16 +7270,26 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -6725,10 +7302,16 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -6746,14 +7329,24 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -6767,10 +7360,16 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -6788,15 +7387,23 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -6808,16 +7415,20 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -6829,16 +7440,26 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -6850,16 +7471,28 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -6872,10 +7505,16 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6893,15 +7532,21 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -6914,14 +7559,26 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6934,16 +7591,20 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+    <row r="15" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -6956,15 +7617,27 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -6976,11 +7649,17 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6998,15 +7677,25 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -7019,13 +7708,23 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
@@ -7040,12 +7739,22 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -7060,16 +7769,20 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+    <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -7082,15 +7795,27 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -7103,15 +7828,21 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -7124,15 +7855,25 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -7145,12 +7886,20 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -7166,11 +7915,19 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -7187,15 +7944,19 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -7208,15 +7969,29 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -7229,32 +8004,21 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <f>SUM(E4:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <f>SUM(F4:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f>SUM(G3:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <f>SUM(H3:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <f>SUM(I3:I28)</f>
-        <v>0</v>
-      </c>
+      <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -7266,52 +8030,387 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
+        <f>SUM(E3:E38)</f>
+        <v>8.5</v>
+      </c>
+      <c r="F39" s="5">
+        <f>SUM(F3:F38)</f>
+        <v>9</v>
+      </c>
+      <c r="G39" s="5">
+        <f>SUM(G3:G38)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H39" s="5">
+        <f>SUM(H3:H38)</f>
+        <v>8</v>
+      </c>
+      <c r="I39" s="5">
+        <f>SUM(I3:I38)</f>
+        <v>8</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D7">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FINISHED">
+  <conditionalFormatting sqref="D22:D26">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36 D38">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="FINISHED">
       <formula>NOT(ISERROR(SEARCH("FINISHED",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ONGOING">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="ONGOING">
       <formula>NOT(ISERROR(SEARCH("ONGOING",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D9)))</formula>
+  <conditionalFormatting sqref="D28:D32">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D14)))</formula>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="FINISHED">
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="ONGOING">
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D22">
+  <conditionalFormatting sqref="D10:D14">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D27">
+  <conditionalFormatting sqref="D37">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FINISHED">
-      <formula>NOT(ISERROR(SEARCH("FINISHED",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINISHED",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ONGOING">
-      <formula>NOT(ISERROR(SEARCH("ONGOING",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ONGOING",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D22 D9:D12 D4:D7 D14:D17 D24:D27" xr:uid="{C8F08167-B465-4A0E-B36F-B52DB08FCDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D20 D10:D14 D28:D32 D22:D26 D4:D8 D34:D38" xr:uid="{5DC9C0F3-ECBF-4EF8-90C2-6F04494CD97A}">
       <formula1>"WAITING, ONGOING, FINISHED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7327,6 +8426,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100D88E0649D34A4A40BE87987BBC567833" ma:contentTypeVersion="2" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f3266c6cc1410ba2008d4b4d9d49ad4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31c16ac0-b1a7-4d12-9c22-a12e68df316a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="048e47df2e95e79dd6630b0f2d635ba7" ns2:_="">
     <xsd:import namespace="31c16ac0-b1a7-4d12-9c22-a12e68df316a"/>
@@ -7458,15 +8566,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56DAD679-0DA5-4523-A045-DB59C4C76152}">
   <ds:schemaRefs>
@@ -7477,6 +8576,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A43DF592-EB4B-40B2-AE6E-A8B75D5736AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FE2458-C7DF-4F7B-90A8-3EB3E87ACD0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7492,12 +8599,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A43DF592-EB4B-40B2-AE6E-A8B75D5736AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>